--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858E9E9-F767-46D8-8884-6C3DB7C68307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66E8A4-D5E6-4046-8952-DFCA00A212C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>ASSAY</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>user-specific</t>
+  </si>
+  <si>
+    <t>C3_prep</t>
+  </si>
+  <si>
+    <t>C3_measured</t>
   </si>
 </sst>
 </file>
@@ -278,9 +284,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -764,14 +769,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -779,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -787,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -795,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -803,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -811,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -819,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -827,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -835,62 +840,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -905,50 +910,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F60A0-93F0-4E25-9C5D-4892BE48A356}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="40" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1796875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="21.26953125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.453125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.81640625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="0.453125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1055,392 +1060,266 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="2">
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="1">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="3">
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="2">
         <v>1</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="4">
+      <c r="Y2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="3">
         <v>3600</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" s="1"/>
+      <c r="AF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
+      </c>
       <c r="AI2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="2">
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="1">
         <v>20</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="3">
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="2">
         <v>1</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="4">
+      <c r="Y3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="3">
         <v>3600</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH3" s="1"/>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>73</v>
+      </c>
       <c r="AI3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+        <v>74</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="2">
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="1">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="3">
+      <c r="U4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="2">
         <v>1</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="4">
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="3">
         <v>3600</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH4" s="1"/>
+      <c r="AF4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>73</v>
+      </c>
       <c r="AI4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="2">
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="1">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="3">
+      <c r="U5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="2">
         <v>1</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="4">
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="3">
         <v>3600</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH5" s="1"/>
+      <c r="AF5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>73</v>
+      </c>
       <c r="AI5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="2">
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="1">
         <v>20</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="3">
+      <c r="U6" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="2">
         <v>1</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="4">
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="3">
         <v>3600</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH6" s="1"/>
+      <c r="AF6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>73</v>
+      </c>
       <c r="AI6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="2">
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="1">
         <v>20</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="3">
+      <c r="U7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="2">
         <v>1</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="4">
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE7" s="3">
         <v>3600</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH7" s="1"/>
+      <c r="AF7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>73</v>
+      </c>
       <c r="AI7" t="s">
         <v>72</v>
       </c>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66E8A4-D5E6-4046-8952-DFCA00A212C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E4BB2-05A5-48D0-87B2-C8D184C54E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -102,12 +102,6 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
-    <t>Source Name</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
     <t>Parameter [Experiment type]</t>
   </si>
   <si>
@@ -244,6 +238,12 @@
   </si>
   <si>
     <t>C3_measured</t>
+  </si>
+  <si>
+    <t>Output [Raw Data File]</t>
+  </si>
+  <si>
+    <t>Input [Sample Name]</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:AI7" totalsRowShown="0">
   <autoFilter ref="A1:AI7" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{DFD9FB06-4D0E-4209-8DB9-44DB4146B99F}" name="Source Name"/>
+    <tableColumn id="1" xr3:uid="{DFD9FB06-4D0E-4209-8DB9-44DB4146B99F}" name="Input [Sample Name]"/>
     <tableColumn id="3" xr3:uid="{EFF328A2-DEE7-4C19-92C2-4090664FBD72}" name="Parameter [Experiment type]" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{6CE5B34E-BAE1-4131-8906-9D7560E5E460}" name="Term Source REF ()" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{69099F88-6246-422E-9F28-6BF0FE350DB0}" name="Term Accession Number ()" dataDxfId="30"/>
@@ -444,16 +444,16 @@
     <tableColumn id="33" xr3:uid="{B3057205-F25F-4D69-A16F-2D332BFF46BF}" name="Unit  " dataDxfId="2"/>
     <tableColumn id="34" xr3:uid="{5C5D3DDA-7C7B-4B9B-A16B-73D542A1086D}" name="Term Source REF (PATO:0001309)" dataDxfId="1"/>
     <tableColumn id="35" xr3:uid="{500A84DC-D0D0-4253-8EB4-070762CA9BFB}" name="Term Accession Number (PATO:0001309)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6EF5F1C7-8FBA-4879-843C-49DBF4157B74}" name="Sample Name"/>
+    <tableColumn id="2" xr3:uid="{6EF5F1C7-8FBA-4879-843C-49DBF4157B74}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +491,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -597,7 +597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,14 +769,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -808,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -832,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -840,62 +840,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -910,418 +910,418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F60A0-93F0-4E25-9C5D-4892BE48A356}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="40" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1796875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="20.81640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.26953125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.453125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="32.81640625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0.453125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>61</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>63</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T2" s="1">
         <v>20</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X2" s="2">
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="3">
         <v>3600</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="1">
         <v>20</v>
       </c>
       <c r="U3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X3" s="2">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE3" s="3">
         <v>3600</v>
       </c>
       <c r="AF3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" s="1">
         <v>20</v>
       </c>
       <c r="U4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X4" s="2">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE4" s="3">
         <v>3600</v>
       </c>
       <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="1">
         <v>20</v>
       </c>
       <c r="U5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X5" s="2">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE5" s="3">
         <v>3600</v>
       </c>
       <c r="AF5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" s="1">
         <v>20</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE6" s="3">
         <v>3600</v>
       </c>
       <c r="AF6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AI6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" s="1">
         <v>20</v>
       </c>
       <c r="U7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X7" s="2">
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE7" s="3">
         <v>3600</v>
       </c>
       <c r="AF7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E4BB2-05A5-48D0-87B2-C8D184C54E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9289AD27-0C94-46B1-8F7C-A45439D440E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>ASSAY</t>
   </si>
@@ -102,24 +102,6 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
-    <t>Parameter [Experiment type]</t>
-  </si>
-  <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
-  </si>
-  <si>
-    <t>Parameter [Quantification method]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF () </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number () </t>
-  </si>
-  <si>
     <t>Parameter [technical replicate]</t>
   </si>
   <si>
@@ -129,33 +111,6 @@
     <t>Term Accession Number (MS:1001808)</t>
   </si>
   <si>
-    <t>Parameter [Variable modification]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1003022)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1003022)</t>
-  </si>
-  <si>
-    <t>Parameter [Fixed modification]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1003021)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1003021)</t>
-  </si>
-  <si>
-    <t>Parameter [sample volume]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0010013)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0010013)</t>
-  </si>
-  <si>
     <t>Parameter [injection volume]</t>
   </si>
   <si>
@@ -168,39 +123,6 @@
     <t xml:space="preserve">Term Accession Number ()  </t>
   </si>
   <si>
-    <t>Parameter [Number of injections]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF ()   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number ()   </t>
-  </si>
-  <si>
-    <t>Parameter [instrument model]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1000031)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000031)</t>
-  </si>
-  <si>
-    <t>Parameter [duration]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit  </t>
-  </si>
-  <si>
-    <t>Term Source REF (PATO:0001309)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (PATO:0001309)</t>
-  </si>
-  <si>
     <t>C1_prep</t>
   </si>
   <si>
@@ -244,16 +166,17 @@
   </si>
   <si>
     <t>Input [Sample Name]</t>
+  </si>
+  <si>
+    <t>microliter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -284,49 +207,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -338,51 +226,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -407,43 +250,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:AI7" totalsRowShown="0">
-  <autoFilter ref="A1:AI7" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}"/>
-  <tableColumns count="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DFD9FB06-4D0E-4209-8DB9-44DB4146B99F}" name="Input [Sample Name]"/>
-    <tableColumn id="3" xr3:uid="{EFF328A2-DEE7-4C19-92C2-4090664FBD72}" name="Parameter [Experiment type]" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{6CE5B34E-BAE1-4131-8906-9D7560E5E460}" name="Term Source REF ()" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{69099F88-6246-422E-9F28-6BF0FE350DB0}" name="Term Accession Number ()" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{299ACC50-8B01-487E-89CF-EDF344CF7425}" name="Parameter [Quantification method]" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00CEC8FF-7E97-489B-8EB1-77CA44A850C4}" name="Term Source REF () " dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{DB942CDF-33FA-441C-BB78-80C81AE74805}" name="Term Accession Number () " dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{862C36D9-927C-4802-98A6-0D598B32C6D4}" name="Parameter [technical replicate]" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{2F0E8CA9-23E5-47EB-ADDF-C85A1AD0B231}" name="Term Source REF (MS:1001808)" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{38CFA671-2150-4793-8B1D-C955B3941D01}" name="Term Accession Number (MS:1001808)" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{ED7F1E64-3521-4535-BB35-A078E9F32DA7}" name="Parameter [Variable modification]" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{7367D5C7-167D-48F4-88E5-B489CFD1AB46}" name="Term Source REF (MS:1003022)" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{160CE956-DE1D-48F0-A7BE-BF1CFD8D86C5}" name="Term Accession Number (MS:1003022)" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{2DA5A953-30DB-4D83-A106-F7AC3145ACB1}" name="Parameter [Fixed modification]" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{63B41D0A-5288-41D6-8C58-3B0607584EBF}" name="Term Source REF (MS:1003021)" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{1AEDD1DE-7E1F-4175-97F4-AE8EA95AF198}" name="Term Accession Number (MS:1003021)" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{52930809-E0C8-4C14-AC01-8D1E2E20AA2E}" name="Parameter [sample volume]" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{00E19C14-CD4A-45F0-996B-ED374A886BFA}" name="Term Source REF (DPBO:0010013)" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{FEB9B5A3-3D8D-4102-AC30-3551CED4F67E}" name="Term Accession Number (DPBO:0010013)" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{CE5648F1-7EB4-4191-8031-E69FCFDB235A}" name="Parameter [injection volume]" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{578D7BEE-4916-4CE2-B9BD-0C5A02DCEBB8}" name="Unit" dataDxfId="13"/>
-    <tableColumn id="23" xr3:uid="{835EC9C3-299A-4589-A318-984F2B32D716}" name="Term Source REF ()  " dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{152CF713-3C8A-44F1-B835-1D93B6375378}" name="Term Accession Number ()  " dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{574BD474-8880-4809-819F-616486C47A39}" name="Parameter [Number of injections]" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{D93C4BEB-A061-4B2F-B891-743FFD8908BA}" name="Unit " dataDxfId="9"/>
-    <tableColumn id="27" xr3:uid="{D6578B0D-0561-4EC1-A3A3-1D83E68EEADF}" name="Term Source REF ()   " dataDxfId="8"/>
-    <tableColumn id="28" xr3:uid="{5280F4C7-6AE8-472C-B3ED-D0E2DDCD7722}" name="Term Accession Number ()   " dataDxfId="7"/>
-    <tableColumn id="29" xr3:uid="{41081C41-DA40-4564-82CE-765FBF3C9384}" name="Parameter [instrument model]" dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{48526BC4-A777-406B-8AF6-1C4C62DDD3B9}" name="Term Source REF (MS:1000031)" dataDxfId="5"/>
-    <tableColumn id="31" xr3:uid="{26255A8C-BBEF-4EA8-AC88-7646EE221495}" name="Term Accession Number (MS:1000031)" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{A13B8883-4D67-4305-AC2D-EB5706184AE4}" name="Parameter [duration]" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{B3057205-F25F-4D69-A16F-2D332BFF46BF}" name="Unit  " dataDxfId="2"/>
-    <tableColumn id="34" xr3:uid="{5C5D3DDA-7C7B-4B9B-A16B-73D542A1086D}" name="Term Source REF (PATO:0001309)" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{500A84DC-D0D0-4253-8EB4-070762CA9BFB}" name="Term Accession Number (PATO:0001309)" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{862C36D9-927C-4802-98A6-0D598B32C6D4}" name="Parameter [technical replicate]" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{2F0E8CA9-23E5-47EB-ADDF-C85A1AD0B231}" name="Term Source REF (MS:1001808)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{38CFA671-2150-4793-8B1D-C955B3941D01}" name="Term Accession Number (MS:1001808)" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{CE5648F1-7EB4-4191-8031-E69FCFDB235A}" name="Parameter [injection volume]" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{578D7BEE-4916-4CE2-B9BD-0C5A02DCEBB8}" name="Unit" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{835EC9C3-299A-4589-A318-984F2B32D716}" name="Term Source REF ()  " dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{152CF713-3C8A-44F1-B835-1D93B6375378}" name="Term Accession Number ()  " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6EF5F1C7-8FBA-4879-843C-49DBF4157B74}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -769,14 +586,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -784,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -792,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -800,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -808,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -816,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -824,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -832,7 +649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -840,62 +657,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -908,54 +725,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F60A0-93F0-4E25-9C5D-4892BE48A356}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="40" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -979,349 +770,163 @@
         <v>34</v>
       </c>
       <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
         <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="1">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>3600</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="1">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>3600</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="1">
-        <v>20</v>
-      </c>
-      <c r="U4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>3600</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="1">
-        <v>20</v>
-      </c>
-      <c r="U5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>3600</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="1">
-        <v>20</v>
-      </c>
-      <c r="U6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>3600</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" s="1">
-        <v>20</v>
-      </c>
-      <c r="U7" t="s">
-        <v>71</v>
-      </c>
-      <c r="V7" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>3600</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9289AD27-0C94-46B1-8F7C-A45439D440E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78AE04-B352-4399-8A5A-FA087E0690D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="690" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>ASSAY</t>
   </si>
@@ -111,18 +111,9 @@
     <t>Term Accession Number (MS:1001808)</t>
   </si>
   <si>
-    <t>Parameter [injection volume]</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Term Source REF ()  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number ()  </t>
-  </si>
-  <si>
     <t>C1_prep</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>H3_measured</t>
   </si>
   <si>
-    <t>user-specific</t>
-  </si>
-  <si>
     <t>C3_prep</t>
   </si>
   <si>
@@ -169,6 +157,21 @@
   </si>
   <si>
     <t>microliter</t>
+  </si>
+  <si>
+    <t>Parameter [injection volume setting]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Source REF (AFR:0001577)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Accession Number (AFR:0001577)  </t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>UO</t>
   </si>
 </sst>
 </file>
@@ -178,10 +181,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,14 +221,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -257,10 +277,10 @@
     <tableColumn id="9" xr3:uid="{862C36D9-927C-4802-98A6-0D598B32C6D4}" name="Parameter [technical replicate]" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{2F0E8CA9-23E5-47EB-ADDF-C85A1AD0B231}" name="Term Source REF (MS:1001808)" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{38CFA671-2150-4793-8B1D-C955B3941D01}" name="Term Accession Number (MS:1001808)" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{CE5648F1-7EB4-4191-8031-E69FCFDB235A}" name="Parameter [injection volume]" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{CE5648F1-7EB4-4191-8031-E69FCFDB235A}" name="Parameter [injection volume setting]" dataDxfId="3"/>
     <tableColumn id="22" xr3:uid="{578D7BEE-4916-4CE2-B9BD-0C5A02DCEBB8}" name="Unit" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{835EC9C3-299A-4589-A318-984F2B32D716}" name="Term Source REF ()  " dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{152CF713-3C8A-44F1-B835-1D93B6375378}" name="Term Accession Number ()  " dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{835EC9C3-299A-4589-A318-984F2B32D716}" name="Term Source REF (AFR:0001577)  " dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{152CF713-3C8A-44F1-B835-1D93B6375378}" name="Term Accession Number (AFR:0001577)  " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6EF5F1C7-8FBA-4879-843C-49DBF4157B74}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -728,7 +748,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,13 +760,13 @@
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1796875" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="8" max="8" width="43.90625" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -758,181 +778,173 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="1">
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="1">
         <v>20</v>
       </c>
       <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{7A070070-A5E7-460D-8774-D985E2134583}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{DC33DEA4-C5A6-42D7-9708-E3D62650B01C}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{D882773A-286E-49A8-BDF6-66103E8253C7}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{B0284F30-7B60-425D-8A17-3B27C14644D4}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{69E55635-E879-4F1B-B76C-FEFEE0D20517}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{4B48B045-9640-4921-8212-3C8F47DBE13A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78AE04-B352-4399-8A5A-FA087E0690D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1440" yWindow="690" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
-    <sheet name="MS" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_assay" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="MS" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>ASSAY</t>
   </si>
@@ -102,6 +98,9 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
+    <t>Input [Sample Name]</t>
+  </si>
+  <si>
     <t>Parameter [technical replicate]</t>
   </si>
   <si>
@@ -111,97 +110,86 @@
     <t>Term Accession Number (MS:1001808)</t>
   </si>
   <si>
+    <t>Parameter [injection volume setting]</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
+    <t>Term Source REF (AFR:0001577)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (AFR:0001577)</t>
+  </si>
+  <si>
+    <t>Output [Raw Data File]</t>
+  </si>
+  <si>
     <t>C1_prep</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>C1_measured</t>
+  </si>
+  <si>
     <t>C2_prep</t>
   </si>
   <si>
+    <t>C2_measured</t>
+  </si>
+  <si>
+    <t>C3_prep</t>
+  </si>
+  <si>
+    <t>C3_measured</t>
+  </si>
+  <si>
     <t>H1_prep</t>
   </si>
   <si>
+    <t>H1_measured</t>
+  </si>
+  <si>
     <t>H2_prep</t>
   </si>
   <si>
+    <t>H2_measured</t>
+  </si>
+  <si>
     <t>H3_prep</t>
   </si>
   <si>
-    <t>C1_measured</t>
-  </si>
-  <si>
-    <t>C2_measured</t>
-  </si>
-  <si>
-    <t>H1_measured</t>
-  </si>
-  <si>
-    <t>H2_measured</t>
-  </si>
-  <si>
     <t>H3_measured</t>
-  </si>
-  <si>
-    <t>C3_prep</t>
-  </si>
-  <si>
-    <t>C3_measured</t>
-  </si>
-  <si>
-    <t>Output [Raw Data File]</t>
-  </si>
-  <si>
-    <t>Input [Sample Name]</t>
-  </si>
-  <si>
-    <t>microliter</t>
-  </si>
-  <si>
-    <t>Parameter [injection volume setting]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF (AFR:0001577)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number (AFR:0001577)  </t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
-  </si>
-  <si>
-    <t>UO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,42 +209,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -270,27 +232,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{7EFC0EB9-769D-4497-B392-58A58E4F6CCF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:I7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:I7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DFD9FB06-4D0E-4209-8DB9-44DB4146B99F}" name="Input [Sample Name]"/>
-    <tableColumn id="9" xr3:uid="{862C36D9-927C-4802-98A6-0D598B32C6D4}" name="Parameter [technical replicate]" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{2F0E8CA9-23E5-47EB-ADDF-C85A1AD0B231}" name="Term Source REF (MS:1001808)" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{38CFA671-2150-4793-8B1D-C955B3941D01}" name="Term Accession Number (MS:1001808)" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{CE5648F1-7EB4-4191-8031-E69FCFDB235A}" name="Parameter [injection volume setting]" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{578D7BEE-4916-4CE2-B9BD-0C5A02DCEBB8}" name="Unit" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{835EC9C3-299A-4589-A318-984F2B32D716}" name="Term Source REF (AFR:0001577)  " dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{152CF713-3C8A-44F1-B835-1D93B6375378}" name="Term Accession Number (AFR:0001577)  " dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6EF5F1C7-8FBA-4879-843C-49DBF4157B74}" name="Output [Raw Data File]"/>
+    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Parameter [technical replicate]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (MS:1001808)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (MS:1001808)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [injection volume setting]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Unit" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Source REF (AFR:0001577)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Accession Number (AFR:0001577)" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Output [Raw Data File]" totalsRowFunction="none"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,44 +548,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{23BA38AB-87DF-48D9-AC29-6436B230D61E}">
-  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.8.0.0" store="\\DESKTOP-GGDHOH8\nfdi_manifest_User" storeType="Filesystem"/>
-  <we:alternateReferences/>
-  <we:properties/>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -621,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -629,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -637,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -645,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -653,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -661,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -669,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -677,274 +628,285 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F60A0-93F0-4E25-9C5D-4892BE48A356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="43.90625" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20</v>
-      </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{7A070070-A5E7-460D-8774-D985E2134583}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{DC33DEA4-C5A6-42D7-9708-E3D62650B01C}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{D882773A-286E-49A8-BDF6-66103E8253C7}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{B0284F30-7B60-425D-8A17-3B27C14644D4}"/>
-    <hyperlink ref="H5" r:id="rId5" xr:uid="{69E55635-E879-4F1B-B76C-FEFEE0D20517}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{4B48B045-9640-4921-8212-3C8F47DBE13A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Heat/isa.assay.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798D675D-63C8-4796-B86E-F4CAE9888AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_assay" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="MS" state="visible" r:id="rId5"/>
+    <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
+    <sheet name="MS_Heat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -182,14 +186,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:I7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:I7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:I7">
+  <autoFilter ref="A1:I7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -245,15 +249,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [technical replicate]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (MS:1001808)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (MS:1001808)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [injection volume setting]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Unit" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Source REF (AFR:0001577)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Accession Number (AFR:0001577)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Sample Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [technical replicate]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (MS:1001808)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (MS:1001808)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [injection volume setting]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Source REF (AFR:0001577)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Term Accession Number (AFR:0001577)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,11 +559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,37 +635,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -690,14 +697,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -904,7 +916,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
